--- a/data/proshares_analysis_data.xlsx
+++ b/data/proshares_analysis_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markhendricks/Projects/finm-portfolio/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Documents\GitKraken\portfolio-risk-mgmt\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7906F24-0123-AB47-8D0C-5D39AB037842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF296DB2-0708-43EA-8016-F1213444DA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30400" yWindow="-8500" windowWidth="25360" windowHeight="27980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="descriptions" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -181,15 +181,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -504,144 +503,144 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>30</v>
       </c>
     </row>
@@ -654,17 +653,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F171"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
@@ -681,8 +682,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="5">
         <v>40786</v>
       </c>
       <c r="B2">
@@ -701,8 +702,8 @@
         <v>-6.4924225785196743E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="5">
         <v>40816</v>
       </c>
       <c r="B3">
@@ -721,8 +722,8 @@
         <v>-2.2142440266699759E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="5">
         <v>40847</v>
       </c>
       <c r="B4">
@@ -741,8 +742,8 @@
         <v>2.524371054963748E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="5">
         <v>40877</v>
       </c>
       <c r="B5">
@@ -761,8 +762,8 @@
         <v>-7.9648242314122042E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="5">
         <v>40908</v>
       </c>
       <c r="B6">
@@ -781,8 +782,8 @@
         <v>1.8182545645302191E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="5">
         <v>40939</v>
       </c>
       <c r="B7">
@@ -801,8 +802,8 @@
         <v>1.6986909252274311E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="5">
         <v>40968</v>
       </c>
       <c r="B8">
@@ -821,8 +822,8 @@
         <v>1.307280803567545E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="5">
         <v>40999</v>
       </c>
       <c r="B9">
@@ -841,8 +842,8 @@
         <v>-6.0945670057801493E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="5">
         <v>41029</v>
       </c>
       <c r="B10">
@@ -861,8 +862,8 @@
         <v>-2.8817944262196078E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="5">
         <v>41060</v>
       </c>
       <c r="B11">
@@ -881,8 +882,8 @@
         <v>-1.266004328665671E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="5">
         <v>41090</v>
       </c>
       <c r="B12">
@@ -901,8 +902,8 @@
         <v>7.3245561908785728E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="5">
         <v>41121</v>
       </c>
       <c r="B13">
@@ -921,8 +922,8 @@
         <v>1.2366448906465211E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="5">
         <v>41152</v>
       </c>
       <c r="B14">
@@ -941,8 +942,8 @@
         <v>6.8242149562964824E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="5">
         <v>41182</v>
       </c>
       <c r="B15">
@@ -961,8 +962,8 @@
         <v>4.6386802483109344E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="5">
         <v>41213</v>
       </c>
       <c r="B16">
@@ -981,8 +982,8 @@
         <v>1.421024332374454E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="5">
         <v>41243</v>
       </c>
       <c r="B17">
@@ -1001,8 +1002,8 @@
         <v>1.7726945383111929E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="5">
         <v>41274</v>
       </c>
       <c r="B18">
@@ -1021,8 +1022,8 @@
         <v>-4.615312628941548E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="5">
         <v>41305</v>
       </c>
       <c r="B19">
@@ -1041,8 +1042,8 @@
         <v>5.6537978307875658E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="5">
         <v>41333</v>
       </c>
       <c r="B20">
@@ -1061,8 +1062,8 @@
         <v>-2.5496653564216493E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="5">
         <v>41364</v>
       </c>
       <c r="B21">
@@ -1081,8 +1082,8 @@
         <v>7.4724247125583787E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="5">
         <v>41394</v>
       </c>
       <c r="B22">
@@ -1101,8 +1102,8 @@
         <v>9.6193196440850226E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="5">
         <v>41425</v>
       </c>
       <c r="B23">
@@ -1121,8 +1122,8 @@
         <v>7.0621764039735524E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="5">
         <v>41455</v>
       </c>
       <c r="B24">
@@ -1141,8 +1142,8 @@
         <v>-2.7761074363599869E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="5">
         <v>41486</v>
       </c>
       <c r="B25">
@@ -1161,8 +1162,8 @@
         <v>1.9877675840978659E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="5">
         <v>41517</v>
       </c>
       <c r="B26">
@@ -1181,8 +1182,8 @@
         <v>-1.027576099590655E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" s="5">
         <v>41547</v>
       </c>
       <c r="B27">
@@ -1201,8 +1202,8 @@
         <v>2.2913723554541798E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="5">
         <v>41578</v>
       </c>
       <c r="B28">
@@ -1221,8 +1222,8 @@
         <v>1.470068262083135E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" s="5">
         <v>41608</v>
       </c>
       <c r="B29">
@@ -1241,8 +1242,8 @@
         <v>6.5551323939967432E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" s="5">
         <v>41639</v>
       </c>
       <c r="B30">
@@ -1261,8 +1262,8 @@
         <v>5.3883435832688953E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" s="5">
         <v>41670</v>
       </c>
       <c r="B31">
@@ -1281,8 +1282,8 @@
         <v>-7.5956135837927929E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" s="5">
         <v>41698</v>
       </c>
       <c r="B32">
@@ -1301,8 +1302,8 @@
         <v>2.0871261909232611E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="5">
         <v>41729</v>
       </c>
       <c r="B33">
@@ -1321,8 +1322,8 @@
         <v>-4.4303873390086901E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="5">
         <v>41759</v>
       </c>
       <c r="B34">
@@ -1341,8 +1342,8 @@
         <v>2.3977540635304879E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" s="5">
         <v>41790</v>
       </c>
       <c r="B35">
@@ -1361,8 +1362,8 @@
         <v>1.4336084622165179E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" s="5">
         <v>41820</v>
       </c>
       <c r="B36">
@@ -1381,8 +1382,8 @@
         <v>9.4249441060523242E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" s="5">
         <v>41851</v>
       </c>
       <c r="B37">
@@ -1401,8 +1402,8 @@
         <v>-1.3003631468553319E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="5">
         <v>41882</v>
       </c>
       <c r="B38">
@@ -1421,8 +1422,8 @@
         <v>1.8919915470956061E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="5">
         <v>41912</v>
       </c>
       <c r="B39">
@@ -1441,8 +1442,8 @@
         <v>-1.6245578673349081E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="5">
         <v>41943</v>
       </c>
       <c r="B40">
@@ -1461,8 +1462,8 @@
         <v>3.706223449279733E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" s="5">
         <v>41973</v>
       </c>
       <c r="B41">
@@ -1481,8 +1482,8 @@
         <v>1.2086461350515391E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" s="5">
         <v>42004</v>
       </c>
       <c r="B42">
@@ -1501,8 +1502,8 @@
         <v>-1.187592963219675E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" s="5">
         <v>42035</v>
       </c>
       <c r="B43">
@@ -1521,8 +1522,8 @@
         <v>-1.326781520419895E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" s="5">
         <v>42063</v>
       </c>
       <c r="B44">
@@ -1541,8 +1542,8 @@
         <v>3.4136698548351552E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" s="5">
         <v>42094</v>
       </c>
       <c r="B45">
@@ -1561,8 +1562,8 @@
         <v>-1.6682564017408421E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" s="5">
         <v>42124</v>
       </c>
       <c r="B46">
@@ -1581,8 +1582,8 @@
         <v>2.003705695088565E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47" s="5">
         <v>42155</v>
       </c>
       <c r="B47">
@@ -1601,8 +1602,8 @@
         <v>-3.3199634031944042E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" s="5">
         <v>42185</v>
       </c>
       <c r="B48">
@@ -1621,8 +1622,8 @@
         <v>-1.3670434403154189E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49" s="5">
         <v>42216</v>
       </c>
       <c r="B49">
@@ -1641,8 +1642,8 @@
         <v>-3.4062479200358542E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" s="5">
         <v>42247</v>
       </c>
       <c r="B50">
@@ -1661,8 +1662,8 @@
         <v>-1.690779630746575E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="5">
         <v>42277</v>
       </c>
       <c r="B51">
@@ -1681,8 +1682,8 @@
         <v>-9.2865196068666611E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" s="5">
         <v>42308</v>
       </c>
       <c r="B52">
@@ -1701,8 +1702,8 @@
         <v>8.6778886753151596E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" s="5">
         <v>42338</v>
       </c>
       <c r="B53">
@@ -1721,8 +1722,8 @@
         <v>-5.1627358114465496E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" s="5">
         <v>42369</v>
       </c>
       <c r="B54">
@@ -1741,8 +1742,8 @@
         <v>-1.0467217811902629E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" s="5">
         <v>42400</v>
       </c>
       <c r="B55">
@@ -1761,8 +1762,8 @@
         <v>-1.4056672160823619E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56" s="5">
         <v>42429</v>
       </c>
       <c r="B56">
@@ -1781,8 +1782,8 @@
         <v>3.565296683616825E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57" s="5">
         <v>42460</v>
       </c>
       <c r="B57">
@@ -1801,8 +1802,8 @@
         <v>2.3435901213951778E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58" s="5">
         <v>42490</v>
       </c>
       <c r="B58">
@@ -1821,8 +1822,8 @@
         <v>8.3302673044007847E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" s="5">
         <v>42521</v>
       </c>
       <c r="B59">
@@ -1841,8 +1842,8 @@
         <v>-3.442600194340395E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" s="5">
         <v>42551</v>
       </c>
       <c r="B60">
@@ -1861,8 +1862,8 @@
         <v>6.905005432468192E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61" s="5">
         <v>42582</v>
       </c>
       <c r="B61">
@@ -1881,8 +1882,8 @@
         <v>7.8892656975044773E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62" s="5">
         <v>42613</v>
       </c>
       <c r="B62">
@@ -1901,8 +1902,8 @@
         <v>-2.7215899732547788E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" s="5">
         <v>42643</v>
       </c>
       <c r="B63">
@@ -1921,8 +1922,8 @@
         <v>-3.421102302755274E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64" s="5">
         <v>42674</v>
       </c>
       <c r="B64">
@@ -1941,8 +1942,8 @@
         <v>-1.365368956442725E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" s="5">
         <v>42704</v>
       </c>
       <c r="B65">
@@ -1961,8 +1962,8 @@
         <v>-1.3491740645912629E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" s="5">
         <v>42735</v>
       </c>
       <c r="B66">
@@ -1981,8 +1982,8 @@
         <v>5.6273573654912479E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67" s="5">
         <v>42766</v>
       </c>
       <c r="B67">
@@ -2001,8 +2002,8 @@
         <v>2.0944302627083911E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68" s="5">
         <v>42794</v>
       </c>
       <c r="B68">
@@ -2021,8 +2022,8 @@
         <v>1.257642131613146E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69" s="5">
         <v>42825</v>
       </c>
       <c r="B69">
@@ -2041,8 +2042,8 @@
         <v>-4.7541509680670828E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70" s="5">
         <v>42855</v>
       </c>
       <c r="B70">
@@ -2061,8 +2062,8 @@
         <v>2.4088843458176519E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71" s="5">
         <v>42886</v>
       </c>
       <c r="B71">
@@ -2081,8 +2082,8 @@
         <v>4.4583746694755177E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72" s="5">
         <v>42916</v>
       </c>
       <c r="B72">
@@ -2101,8 +2102,8 @@
         <v>4.0962480571351536E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73" s="5">
         <v>42947</v>
       </c>
       <c r="B73">
@@ -2121,8 +2122,8 @@
         <v>9.1818979841362669E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74" s="5">
         <v>42978</v>
       </c>
       <c r="B74">
@@ -2141,8 +2142,8 @@
         <v>5.0520544115193466E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75" s="5">
         <v>43008</v>
       </c>
       <c r="B75">
@@ -2161,8 +2162,8 @@
         <v>1.6768410478325E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76" s="5">
         <v>43039</v>
       </c>
       <c r="B76">
@@ -2181,8 +2182,8 @@
         <v>8.3663125737694077E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A77" s="5">
         <v>43069</v>
       </c>
       <c r="B77">
@@ -2201,8 +2202,8 @@
         <v>5.9749907238459956E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A78" s="5">
         <v>43100</v>
       </c>
       <c r="B78">
@@ -2221,8 +2222,8 @@
         <v>4.2892180162366067E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79" s="5">
         <v>43131</v>
       </c>
       <c r="B79">
@@ -2241,8 +2242,8 @@
         <v>2.003687815442623E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A80" s="5">
         <v>43159</v>
       </c>
       <c r="B80">
@@ -2261,8 +2262,8 @@
         <v>-1.3526103821384189E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A81" s="5">
         <v>43190</v>
       </c>
       <c r="B81">
@@ -2281,8 +2282,8 @@
         <v>-4.8953759204698466E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A82" s="5">
         <v>43220</v>
       </c>
       <c r="B82">
@@ -2301,8 +2302,8 @@
         <v>-2.624215382288519E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A83" s="5">
         <v>43251</v>
       </c>
       <c r="B83">
@@ -2321,8 +2322,8 @@
         <v>6.5778000197145303E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A84" s="5">
         <v>43281</v>
       </c>
       <c r="B84">
@@ -2341,8 +2342,8 @@
         <v>-6.8624976930408144E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A85" s="5">
         <v>43312</v>
       </c>
       <c r="B85">
@@ -2361,8 +2362,8 @@
         <v>8.8858043302653122E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A86" s="5">
         <v>43343</v>
       </c>
       <c r="B86">
@@ -2381,8 +2382,8 @@
         <v>2.608806790415974E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A87" s="5">
         <v>43373</v>
       </c>
       <c r="B87">
@@ -2401,8 +2402,8 @@
         <v>-6.5237930982775527E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A88" s="5">
         <v>43404</v>
       </c>
       <c r="B88">
@@ -2421,8 +2422,8 @@
         <v>-2.7672937098093379E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A89" s="5">
         <v>43434</v>
       </c>
       <c r="B89">
@@ -2441,8 +2442,8 @@
         <v>2.6816789239330059E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A90" s="5">
         <v>43465</v>
       </c>
       <c r="B90">
@@ -2461,8 +2462,8 @@
         <v>-1.7386218016554929E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A91" s="5">
         <v>43496</v>
       </c>
       <c r="B91">
@@ -2481,8 +2482,8 @@
         <v>2.7699995692068932E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A92" s="5">
         <v>43524</v>
       </c>
       <c r="B92">
@@ -2501,8 +2502,8 @@
         <v>8.760898725687527E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A93" s="5">
         <v>43555</v>
       </c>
       <c r="B93">
@@ -2521,8 +2522,8 @@
         <v>4.3405171599646408E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A94" s="5">
         <v>43585</v>
       </c>
       <c r="B94">
@@ -2541,8 +2542,8 @@
         <v>6.6500165498148966E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A95" s="5">
         <v>43616</v>
       </c>
       <c r="B95">
@@ -2561,8 +2562,8 @@
         <v>-1.304776708315891E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A96" s="5">
         <v>43646</v>
       </c>
       <c r="B96">
@@ -2581,8 +2582,8 @@
         <v>1.8244112970394522E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A97" s="5">
         <v>43677</v>
       </c>
       <c r="B97">
@@ -2601,8 +2602,8 @@
         <v>-1.3161857383467981E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A98" s="5">
         <v>43708</v>
       </c>
       <c r="B98">
@@ -2621,8 +2622,8 @@
         <v>-2.9634593548146788E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A99" s="5">
         <v>43738</v>
       </c>
       <c r="B99">
@@ -2641,8 +2642,8 @@
         <v>4.2941051271616626E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A100" s="5">
         <v>43769</v>
       </c>
       <c r="B100">
@@ -2661,8 +2662,8 @@
         <v>9.5330515059914855E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A101" s="5">
         <v>43799</v>
       </c>
       <c r="B101">
@@ -2681,8 +2682,8 @@
         <v>4.8835641916153971E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A102" s="5">
         <v>43830</v>
       </c>
       <c r="B102">
@@ -2701,8 +2702,8 @@
         <v>1.7068048627629121E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A103" s="5">
         <v>43861</v>
       </c>
       <c r="B103">
@@ -2721,8 +2722,8 @@
         <v>-5.8413151427355592E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A104" s="5">
         <v>43890</v>
       </c>
       <c r="B104">
@@ -2741,8 +2742,8 @@
         <v>-1.469815321601387E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A105" s="5">
         <v>43921</v>
       </c>
       <c r="B105">
@@ -2761,8 +2762,8 @@
         <v>-5.6347717323327107E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A106" s="5">
         <v>43951</v>
       </c>
       <c r="B106">
@@ -2781,8 +2782,8 @@
         <v>3.0910714076869409E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A107" s="5">
         <v>43982</v>
       </c>
       <c r="B107">
@@ -2801,8 +2802,8 @@
         <v>1.9762367551296789E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A108" s="5">
         <v>44012</v>
       </c>
       <c r="B108">
@@ -2821,8 +2822,8 @@
         <v>1.303083791921922E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A109" s="5">
         <v>44043</v>
       </c>
       <c r="B109">
@@ -2841,8 +2842,8 @@
         <v>1.780864039358376E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A110" s="5">
         <v>44074</v>
       </c>
       <c r="B110">
@@ -2861,8 +2862,8 @@
         <v>1.263815110394995E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A111" s="5">
         <v>44104</v>
       </c>
       <c r="B111">
@@ -2881,8 +2882,8 @@
         <v>-8.3214649756180314E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A112" s="5">
         <v>44135</v>
       </c>
       <c r="B112">
@@ -2901,8 +2902,8 @@
         <v>-4.516184486673569E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A113" s="5">
         <v>44165</v>
       </c>
       <c r="B113">
@@ -2921,8 +2922,8 @@
         <v>3.3386459056616642E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A114" s="5">
         <v>44196</v>
       </c>
       <c r="B114">
@@ -2941,8 +2942,8 @@
         <v>2.149792679912399E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A115" s="5">
         <v>44227</v>
       </c>
       <c r="B115">
@@ -2961,8 +2962,8 @@
         <v>1.2508009215710381E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A116" s="5">
         <v>44255</v>
       </c>
       <c r="B116">
@@ -2981,8 +2982,8 @@
         <v>1.8789634385030229E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A117" s="5">
         <v>44286</v>
       </c>
       <c r="B117">
@@ -3001,8 +3002,8 @@
         <v>-7.1823898943706999E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A118" s="5">
         <v>44316</v>
       </c>
       <c r="B118">
@@ -3021,8 +3022,8 @@
         <v>5.9750117207417741E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A119" s="5">
         <v>44347</v>
       </c>
       <c r="B119">
@@ -3041,8 +3042,8 @@
         <v>5.939523001194047E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A120" s="5">
         <v>44377</v>
       </c>
       <c r="B120">
@@ -3061,8 +3062,8 @@
         <v>2.4855516741120191E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A121" s="5">
         <v>44408</v>
       </c>
       <c r="B121">
@@ -3081,8 +3082,8 @@
         <v>-3.410424903185882E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A122" s="5">
         <v>44439</v>
       </c>
       <c r="B122">
@@ -3101,8 +3102,8 @@
         <v>1.2456292966596121E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A123" s="5">
         <v>44469</v>
       </c>
       <c r="B123">
@@ -3121,8 +3122,8 @@
         <v>-1.3356952816251599E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A124" s="5">
         <v>44500</v>
       </c>
       <c r="B124">
@@ -3141,8 +3142,8 @@
         <v>1.070412883330474E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A125" s="5">
         <v>44530</v>
       </c>
       <c r="B125">
@@ -3161,8 +3162,8 @@
         <v>-1.4953860340233381E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A126" s="5">
         <v>44561</v>
       </c>
       <c r="B126">
@@ -3181,8 +3182,8 @@
         <v>8.1772283463483753E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A127" s="5">
         <v>44592</v>
       </c>
       <c r="B127">
@@ -3201,8 +3202,8 @@
         <v>-2.075858796541263E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A128" s="5">
         <v>44620</v>
       </c>
       <c r="B128">
@@ -3221,8 +3222,8 @@
         <v>-6.8152186796254233E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A129" s="5">
         <v>44651</v>
       </c>
       <c r="B129">
@@ -3241,8 +3242,8 @@
         <v>-2.5201559829134408E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A130" s="5">
         <v>44681</v>
       </c>
       <c r="B130">
@@ -3261,8 +3262,8 @@
         <v>-3.3397258827876253E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A131" s="5">
         <v>44712</v>
       </c>
       <c r="B131">
@@ -3281,8 +3282,8 @@
         <v>-4.026298353804636E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A132" s="5">
         <v>44742</v>
       </c>
       <c r="B132">
@@ -3301,8 +3302,8 @@
         <v>-3.3682032837697551E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A133" s="5">
         <v>44773</v>
       </c>
       <c r="B133">
@@ -3321,8 +3322,8 @@
         <v>1.8821891796817258E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A134" s="5">
         <v>44804</v>
       </c>
       <c r="B134">
@@ -3341,8 +3342,8 @@
         <v>-1.163174914330467E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A135" s="5">
         <v>44834</v>
       </c>
       <c r="B135">
@@ -3361,8 +3362,8 @@
         <v>-3.9806022177479972E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A136" s="5">
         <v>44865</v>
       </c>
       <c r="B136">
@@ -3381,8 +3382,8 @@
         <v>1.4779809012631869E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A137" s="5">
         <v>44895</v>
       </c>
       <c r="B137">
@@ -3401,8 +3402,8 @@
         <v>3.9788432402842133E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A138" s="5">
         <v>44926</v>
       </c>
       <c r="B138">
@@ -3421,8 +3422,8 @@
         <v>-8.1603749100913614E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A139" s="5">
         <v>44957</v>
       </c>
       <c r="B139">
@@ -3441,8 +3442,8 @@
         <v>2.9164501695219339E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A140" s="5">
         <v>44985</v>
       </c>
       <c r="B140">
@@ -3461,8 +3462,8 @@
         <v>-8.535553303622323E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A141" s="5">
         <v>45016</v>
       </c>
       <c r="B141">
@@ -3481,8 +3482,8 @@
         <v>5.8541446098274719E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A142" s="5">
         <v>45046</v>
       </c>
       <c r="B142">
@@ -3501,8 +3502,8 @@
         <v>5.1353585827866874E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A143" s="5">
         <v>45077</v>
       </c>
       <c r="B143">
@@ -3521,8 +3522,8 @@
         <v>-6.4715537889026287E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A144" s="5">
         <v>45107</v>
       </c>
       <c r="B144">
@@ -3541,8 +3542,8 @@
         <v>2.2626563235117029E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A145" s="5">
         <v>45138</v>
       </c>
       <c r="B145">
@@ -3561,8 +3562,8 @@
         <v>1.9440432247365361E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A146" s="5">
         <v>45169</v>
       </c>
       <c r="B146">
@@ -3581,8 +3582,8 @@
         <v>-5.915772828725796E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A147" s="5">
         <v>45199</v>
       </c>
       <c r="B147">
@@ -3601,8 +3602,8 @@
         <v>-6.6161074061692471E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A148" s="5">
         <v>45230</v>
       </c>
       <c r="B148">
@@ -3621,8 +3622,8 @@
         <v>-1.2321317863785319E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A149" s="5">
         <v>45260</v>
       </c>
       <c r="B149">
@@ -3641,8 +3642,8 @@
         <v>3.2704799549492902E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A150" s="5">
         <v>45291</v>
       </c>
       <c r="B150">
@@ -3661,8 +3662,8 @@
         <v>2.2732403660802761E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A151" s="5">
         <v>45322</v>
       </c>
       <c r="B151">
@@ -3681,8 +3682,8 @@
         <v>-3.8748896284724892E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A152" s="5">
         <v>45351</v>
       </c>
       <c r="B152">
@@ -3701,8 +3702,8 @@
         <v>1.556326047750045E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A153" s="5">
         <v>45382</v>
       </c>
       <c r="B153">
@@ -3721,8 +3722,8 @@
         <v>1.4448577298545869E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A154" s="5">
         <v>45412</v>
       </c>
       <c r="B154">
@@ -3741,8 +3742,8 @@
         <v>-1.1979297655764E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A155" s="5">
         <v>45443</v>
       </c>
       <c r="B155">
@@ -3761,8 +3762,8 @@
         <v>1.3481016049945E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A156" s="5">
         <v>45473</v>
       </c>
       <c r="B156">
@@ -3781,8 +3782,8 @@
         <v>3.1857974242628369E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A157" s="5">
         <v>45504</v>
       </c>
       <c r="B157">
@@ -3801,8 +3802,8 @@
         <v>1.12795949360418E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A158" s="5">
         <v>45535</v>
       </c>
       <c r="B158">
@@ -3821,11 +3822,11 @@
         <v>7.6486818402441434E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A159" s="5">
         <v>45565</v>
       </c>
-      <c r="B159" s="7">
+      <c r="B159" s="6">
         <v>1.37E-2</v>
       </c>
       <c r="C159">
@@ -3841,8 +3842,8 @@
         <v>1.4547617585160211E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A160" s="5">
         <v>45596</v>
       </c>
       <c r="B160">
@@ -3861,8 +3862,8 @@
         <v>-5.9204216308881294E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A161" s="5">
         <v>45626</v>
       </c>
       <c r="B161">
@@ -3881,8 +3882,8 @@
         <v>2.2889948104150681E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A162" s="5">
         <v>45657</v>
       </c>
       <c r="B162">
@@ -3901,8 +3902,8 @@
         <v>-1.57060843841661E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A163" s="5">
         <v>45688</v>
       </c>
       <c r="B163">
@@ -3921,8 +3922,8 @@
         <v>1.6236867239732611E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A164" s="5">
         <v>45716</v>
       </c>
       <c r="B164">
@@ -3941,8 +3942,8 @@
         <v>-5.9523809523810423E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A165" s="5">
         <v>45747</v>
       </c>
       <c r="B165">
@@ -3961,8 +3962,8 @@
         <v>-1.323668452568549E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A166" s="5">
         <v>45777</v>
       </c>
       <c r="B166">
@@ -3981,8 +3982,8 @@
         <v>-2.5550942190992738E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A167" s="5">
         <v>45808</v>
       </c>
       <c r="B167">
@@ -4001,8 +4002,8 @@
         <v>1.9301953250079999E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A168" s="5">
         <v>45838</v>
       </c>
       <c r="B168">
@@ -4021,8 +4022,8 @@
         <v>1.530496846020468E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" s="6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A169" s="5">
         <v>45869</v>
       </c>
       <c r="B169">
@@ -4041,8 +4042,8 @@
         <v>6.8131188118811803E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" s="6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A170" s="5">
         <v>45900</v>
       </c>
       <c r="B170">
@@ -4061,8 +4062,8 @@
         <v>1.505215087799106E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A171" s="5">
         <v>45930</v>
       </c>
       <c r="C171">
@@ -4087,11 +4088,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
@@ -4111,7 +4114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>40786</v>
       </c>
@@ -4134,7 +4137,7 @@
         <v>-8.8913855162370603E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>40816</v>
       </c>
@@ -4157,7 +4160,7 @@
         <v>-0.1115055842428182</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>40847</v>
       </c>
@@ -4180,7 +4183,7 @@
         <v>0.15101121052978941</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>40877</v>
       </c>
@@ -4203,7 +4206,7 @@
         <v>-3.7828459649369428E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>40908</v>
       </c>
@@ -4226,7 +4229,7 @@
         <v>5.1440769111856799E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>40939</v>
       </c>
@@ -4249,7 +4252,7 @@
         <v>7.1457086481480969E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>40968</v>
       </c>
@@ -4272,7 +4275,7 @@
         <v>2.5690163556432392E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>40999</v>
       </c>
@@ -4295,7 +4298,7 @@
         <v>2.4850194653903031E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>41029</v>
       </c>
@@ -4318,7 +4321,7 @@
         <v>-1.6181069934935621E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>41060</v>
       </c>
@@ -4341,7 +4344,7 @@
         <v>-6.5791766210218317E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>41090</v>
       </c>
@@ -4364,7 +4367,7 @@
         <v>5.0523154733681068E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>41121</v>
       </c>
@@ -4387,7 +4390,7 @@
         <v>-1.5209142637053859E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>41152</v>
       </c>
@@ -4410,7 +4413,7 @@
         <v>3.5355209706717787E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>41182</v>
       </c>
@@ -4433,7 +4436,7 @@
         <v>3.2604445336351207E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>41213</v>
       </c>
@@ -4456,7 +4459,7 @@
         <v>-2.1692066962467619E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>41243</v>
       </c>
@@ -4479,7 +4482,7 @@
         <v>5.5125873666219682E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>41274</v>
       </c>
@@ -4502,7 +4505,7 @@
         <v>3.6156882227926353E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>41305</v>
       </c>
@@ -4525,7 +4528,7 @@
         <v>6.2408959187078228E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>41333</v>
       </c>
@@ -4548,7 +4551,7 @@
         <v>1.0046265871727741E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>41364</v>
       </c>
@@ -4571,7 +4574,7 @@
         <v>4.6590898698339663E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>41394</v>
       </c>
@@ -4594,7 +4597,7 @@
         <v>-3.495333729471195E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>41425</v>
       </c>
@@ -4617,7 +4620,7 @@
         <v>3.9320128077287242E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>41455</v>
       </c>
@@ -4640,7 +4643,7 @@
         <v>-8.1792935867394112E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>41486</v>
       </c>
@@ -4663,7 +4666,7 @@
         <v>7.3291042327463529E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>41517</v>
       </c>
@@ -4686,7 +4689,7 @@
         <v>-3.1596086410568991E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>41547</v>
       </c>
@@ -4709,7 +4712,7 @@
         <v>6.4894992715784472E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>41578</v>
       </c>
@@ -4732,7 +4735,7 @@
         <v>2.4200215859645269E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>41608</v>
       </c>
@@ -4755,7 +4758,7 @@
         <v>3.9563987830423468E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>41639</v>
       </c>
@@ -4778,7 +4781,7 @@
         <v>2.0208842928503449E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>41670</v>
       </c>
@@ -4801,7 +4804,7 @@
         <v>-2.7739227207347339E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>41698</v>
       </c>
@@ -4824,7 +4827,7 @@
         <v>4.7788804817243007E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>41729</v>
       </c>
@@ -4847,7 +4850,7 @@
         <v>-7.4842857780710306E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>41759</v>
       </c>
@@ -4870,7 +4873,7 @@
         <v>-3.7475682343932171E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>41790</v>
       </c>
@@ -4893,7 +4896,7 @@
         <v>7.8582074437976157E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>41820</v>
       </c>
@@ -4916,7 +4919,7 @@
         <v>5.2720529359086672E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>41851</v>
       </c>
@@ -4939,7 +4942,7 @@
         <v>-6.0541926894688403E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>41882</v>
       </c>
@@ -4962,7 +4965,7 @@
         <v>4.8296644555452017E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>41912</v>
       </c>
@@ -4985,7 +4988,7 @@
         <v>-5.9282695389068503E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>41943</v>
       </c>
@@ -5008,7 +5011,7 @@
         <v>6.5934913562192943E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>41973</v>
       </c>
@@ -5031,7 +5034,7 @@
         <v>1.1151819382160259E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>42004</v>
       </c>
@@ -5054,7 +5057,7 @@
         <v>2.8929756448225371E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
         <v>42035</v>
       </c>
@@ -5077,7 +5080,7 @@
         <v>-3.27701785889567E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>42063</v>
       </c>
@@ -5100,7 +5103,7 @@
         <v>5.9464149088691347E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>42094</v>
       </c>
@@ -5123,7 +5126,7 @@
         <v>1.7701857521176478E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>42124</v>
       </c>
@@ -5146,7 +5149,7 @@
         <v>-2.56498509748917E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>42155</v>
       </c>
@@ -5169,7 +5172,7 @@
         <v>2.2363584878678289E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
         <v>42185</v>
       </c>
@@ -5192,7 +5195,7 @@
         <v>7.8293548933932033E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
         <v>42216</v>
       </c>
@@ -5215,7 +5218,7 @@
         <v>-1.103697773578349E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>42247</v>
       </c>
@@ -5238,7 +5241,7 @@
         <v>-6.3110436991331453E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>42277</v>
       </c>
@@ -5261,7 +5264,7 @@
         <v>-4.9361847339360658E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <v>42308</v>
       </c>
@@ -5284,7 +5287,7 @@
         <v>5.6227342832039007E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
         <v>42338</v>
       </c>
@@ -5307,7 +5310,7 @@
         <v>3.2599642952057417E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
         <v>42369</v>
       </c>
@@ -5330,7 +5333,7 @@
         <v>-5.0305878570895517E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="2">
         <v>42400</v>
       </c>
@@ -5353,7 +5356,7 @@
         <v>-8.5775135577323192E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
         <v>42429</v>
       </c>
@@ -5376,7 +5379,7 @@
         <v>-2.2336925019781351E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <v>42460</v>
       </c>
@@ -5399,7 +5402,7 @@
         <v>8.0131295426859372E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="2">
         <v>42490</v>
       </c>
@@ -5422,7 +5425,7 @@
         <v>1.6722001077717371E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="2">
         <v>42521</v>
       </c>
@@ -5445,7 +5448,7 @@
         <v>2.2404653506270741E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="2">
         <v>42551</v>
       </c>
@@ -5468,7 +5471,7 @@
         <v>-1.7410549612684181E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="2">
         <v>42582</v>
       </c>
@@ -5491,7 +5494,7 @@
         <v>5.874476608739454E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="2">
         <v>42613</v>
       </c>
@@ -5514,7 +5517,7 @@
         <v>1.7840300550383329E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="2">
         <v>42643</v>
       </c>
@@ -5537,7 +5540,7 @@
         <v>1.0740780639754369E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="2">
         <v>42674</v>
       </c>
@@ -5560,7 +5563,7 @@
         <v>-4.5970501922550588E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="2">
         <v>42704</v>
       </c>
@@ -5583,7 +5586,7 @@
         <v>0.1106323634669788</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="2">
         <v>42735</v>
       </c>
@@ -5606,7 +5609,7 @@
         <v>2.884370303499928E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="2">
         <v>42766</v>
       </c>
@@ -5629,7 +5632,7 @@
         <v>2.8179236848930871E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="2">
         <v>42794</v>
       </c>
@@ -5652,7 +5655,7 @@
         <v>1.9300712705256021E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="2">
         <v>42825</v>
       </c>
@@ -5675,7 +5678,7 @@
         <v>2.5857638703130631E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="2">
         <v>42855</v>
       </c>
@@ -5698,7 +5701,7 @@
         <v>1.149273458525424E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="2">
         <v>42886</v>
       </c>
@@ -5721,7 +5724,7 @@
         <v>-1.9703904648291529E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="2">
         <v>42916</v>
       </c>
@@ -5744,7 +5747,7 @@
         <v>3.3744284214010323E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="2">
         <v>42947</v>
       </c>
@@ -5767,7 +5770,7 @@
         <v>8.5257503909479393E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="2">
         <v>42978</v>
       </c>
@@ -5790,7 +5793,7 @@
         <v>-1.2578606491708499E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="2">
         <v>43008</v>
       </c>
@@ -5813,7 +5816,7 @@
         <v>6.3037665566856971E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="2">
         <v>43039</v>
       </c>
@@ -5836,7 +5839,7 @@
         <v>7.2881931867827543E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="2">
         <v>43069</v>
       </c>
@@ -5859,7 +5862,7 @@
         <v>2.941189554365686E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="2">
         <v>43100</v>
       </c>
@@ -5882,7 +5885,7 @@
         <v>-3.9828757947745208E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="2">
         <v>43131</v>
       </c>
@@ -5905,7 +5908,7 @@
         <v>2.5580766410637331E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="2">
         <v>43159</v>
       </c>
@@ -5928,7 +5931,7 @@
         <v>-3.8437132039286781E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="2">
         <v>43190</v>
       </c>
@@ -5951,7 +5954,7 @@
         <v>1.217796190720599E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" s="2">
         <v>43220</v>
       </c>
@@ -5974,7 +5977,7 @@
         <v>9.8132185052990373E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="2">
         <v>43251</v>
       </c>
@@ -5997,7 +6000,7 @@
         <v>6.1635850893409838E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="2">
         <v>43281</v>
       </c>
@@ -6020,7 +6023,7 @@
         <v>6.1438866908358758E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="2">
         <v>43312</v>
       </c>
@@ -6043,7 +6046,7 @@
         <v>1.6490959657796012E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" s="2">
         <v>43343</v>
       </c>
@@ -6066,7 +6069,7 @@
         <v>4.310630192052689E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" s="2">
         <v>43373</v>
       </c>
@@ -6089,7 +6092,7 @@
         <v>-2.3247770995963871E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="2">
         <v>43404</v>
       </c>
@@ -6112,7 +6115,7 @@
         <v>-0.10987853673404541</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="2">
         <v>43434</v>
       </c>
@@ -6135,7 +6138,7 @@
         <v>1.7263662816535689E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="2">
         <v>43465</v>
       </c>
@@ -6158,7 +6161,7 @@
         <v>-0.11971939926519561</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="2">
         <v>43496</v>
       </c>
@@ -6181,7 +6184,7 @@
         <v>0.11321856895178441</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" s="2">
         <v>43524</v>
       </c>
@@ -6204,7 +6207,7 @@
         <v>5.1791765908760327E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" s="2">
         <v>43555</v>
       </c>
@@ -6227,7 +6230,7 @@
         <v>-2.0933146093570221E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" s="2">
         <v>43585</v>
       </c>
@@ -6250,7 +6253,7 @@
         <v>3.3966701844606151E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" s="2">
         <v>43616</v>
       </c>
@@ -6273,7 +6276,7 @@
         <v>-7.8526337320602102E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" s="2">
         <v>43646</v>
       </c>
@@ -6296,7 +6299,7 @@
         <v>6.984892918569563E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" s="2">
         <v>43677</v>
       </c>
@@ -6319,7 +6322,7 @@
         <v>6.8170393259130444E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" s="2">
         <v>43708</v>
       </c>
@@ -6342,7 +6345,7 @@
         <v>-4.9310360327652458E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" s="2">
         <v>43738</v>
       </c>
@@ -6365,7 +6368,7 @@
         <v>2.0368942490943901E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" s="2">
         <v>43769</v>
       </c>
@@ -6388,7 +6391,7 @@
         <v>2.7157524334481931E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" s="2">
         <v>43799</v>
       </c>
@@ -6411,7 +6414,7 @@
         <v>4.0655535636577873E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" s="2">
         <v>43830</v>
       </c>
@@ -6434,7 +6437,7 @@
         <v>2.78675350053188E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" s="2">
         <v>43861</v>
       </c>
@@ -6457,7 +6460,7 @@
         <v>-3.102582403322085E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" s="2">
         <v>43890</v>
       </c>
@@ -6480,7 +6483,7 @@
         <v>-8.845687944753633E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" s="2">
         <v>43921</v>
       </c>
@@ -6503,7 +6506,7 @@
         <v>-0.21477165291860689</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" s="2">
         <v>43951</v>
       </c>
@@ -6526,7 +6529,7 @@
         <v>0.1384764780834451</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" s="2">
         <v>43982</v>
       </c>
@@ -6549,7 +6552,7 @@
         <v>6.5920367348213382E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108" s="2">
         <v>44012</v>
       </c>
@@ -6572,7 +6575,7 @@
         <v>3.4298031313046318E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109" s="2">
         <v>44043</v>
       </c>
@@ -6595,7 +6598,7 @@
         <v>2.9193924789568729E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" s="2">
         <v>44074</v>
       </c>
@@ -6618,7 +6621,7 @@
         <v>5.4763954962895101E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" s="2">
         <v>44104</v>
       </c>
@@ -6641,7 +6644,7 @@
         <v>-3.2610427097380053E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112" s="2">
         <v>44135</v>
       </c>
@@ -6664,7 +6667,7 @@
         <v>2.2030730882272479E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113" s="2">
         <v>44165</v>
       </c>
@@ -6687,7 +6690,7 @@
         <v>0.18244129610043469</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114" s="2">
         <v>44196</v>
       </c>
@@ -6710,7 +6713,7 @@
         <v>8.6467143519119549E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115" s="2">
         <v>44227</v>
       </c>
@@ -6733,7 +6736,7 @@
         <v>4.8454527763362787E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116" s="2">
         <v>44255</v>
       </c>
@@ -6756,7 +6759,7 @@
         <v>6.2025503761941492E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117" s="2">
         <v>44286</v>
       </c>
@@ -6779,7 +6782,7 @@
         <v>1.3950469425334511E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118" s="2">
         <v>44316</v>
       </c>
@@ -6802,7 +6805,7 @@
         <v>1.7878047203981669E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119" s="2">
         <v>44347</v>
       </c>
@@ -6825,7 +6828,7 @@
         <v>2.7126887698822881E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120" s="2">
         <v>44377</v>
       </c>
@@ -6848,7 +6851,7 @@
         <v>1.8690698793733859E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121" s="2">
         <v>44408</v>
       </c>
@@ -6871,7 +6874,7 @@
         <v>-3.6273252453898008E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" s="2">
         <v>44439</v>
       </c>
@@ -6894,7 +6897,7 @@
         <v>2.2031502654846769E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123" s="2">
         <v>44469</v>
       </c>
@@ -6917,7 +6920,7 @@
         <v>-2.88042870975177E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124" s="2">
         <v>44500</v>
       </c>
@@ -6940,7 +6943,7 @@
         <v>4.2514372201259983E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125" s="2">
         <v>44530</v>
       </c>
@@ -6963,7 +6966,7 @@
         <v>-4.3323568471934533E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126" s="2">
         <v>44561</v>
       </c>
@@ -6986,7 +6989,7 @@
         <v>2.271249614459547E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127" s="2">
         <v>44592</v>
       </c>
@@ -7009,7 +7012,7 @@
         <v>-9.5347320350647746E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128" s="2">
         <v>44620</v>
       </c>
@@ -7032,7 +7035,7 @@
         <v>1.033598741234076E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A129" s="2">
         <v>44651</v>
       </c>
@@ -7055,7 +7058,7 @@
         <v>1.1573316258823411E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A130" s="2">
         <v>44681</v>
       </c>
@@ -7078,7 +7081,7 @@
         <v>-9.899169126651397E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131" s="2">
         <v>44712</v>
       </c>
@@ -7101,7 +7104,7 @@
         <v>1.946636330261819E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132" s="2">
         <v>44742</v>
       </c>
@@ -7124,7 +7127,7 @@
         <v>-8.3663173750884945E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133" s="2">
         <v>44773</v>
       </c>
@@ -7147,7 +7150,7 @@
         <v>0.1056331379495252</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134" s="2">
         <v>44804</v>
       </c>
@@ -7170,7 +7173,7 @@
         <v>-2.0026711211397541E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A135" s="2">
         <v>44834</v>
       </c>
@@ -7193,7 +7196,7 @@
         <v>-9.6602034086728295E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136" s="2">
         <v>44865</v>
       </c>
@@ -7216,7 +7219,7 @@
         <v>0.1116303641348511</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A137" s="2">
         <v>44895</v>
       </c>
@@ -7239,7 +7242,7 @@
         <v>2.2036752116879169E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138" s="2">
         <v>44926</v>
       </c>
@@ -7262,7 +7265,7 @@
         <v>-6.5143700563482732E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A139" s="2">
         <v>44957</v>
       </c>
@@ -7285,7 +7288,7 @@
         <v>9.818766085148023E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A140" s="2">
         <v>44985</v>
       </c>
@@ -7308,7 +7311,7 @@
         <v>-1.7234269209586709E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A141" s="2">
         <v>45016</v>
       </c>
@@ -7331,7 +7334,7 @@
         <v>-4.8476012499436338E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A142" s="2">
         <v>45046</v>
       </c>
@@ -7354,7 +7357,7 @@
         <v>-1.793689316179781E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A143" s="2">
         <v>45077</v>
       </c>
@@ -7377,7 +7380,7 @@
         <v>-8.1623500788338132E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A144" s="2">
         <v>45107</v>
       </c>
@@ -7400,7 +7403,7 @@
         <v>8.0671748332912019E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A145" s="2">
         <v>45138</v>
       </c>
@@ -7423,7 +7426,7 @@
         <v>6.1088452406837579E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A146" s="2">
         <v>45169</v>
       </c>
@@ -7446,7 +7449,7 @@
         <v>-5.0827846440125828E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A147" s="2">
         <v>45199</v>
       </c>
@@ -7469,7 +7472,7 @@
         <v>-5.8536412504225137E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A148" s="2">
         <v>45230</v>
       </c>
@@ -7492,7 +7495,7 @@
         <v>-6.9141097082672909E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A149" s="2">
         <v>45260</v>
       </c>
@@ -7515,7 +7518,7 @@
         <v>9.202483374702175E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A150" s="2">
         <v>45291</v>
       </c>
@@ -7538,7 +7541,7 @@
         <v>0.1212605081749714</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A151" s="2">
         <v>45322</v>
       </c>
@@ -7561,7 +7564,7 @@
         <v>-3.9011178276283642E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A152" s="2">
         <v>45351</v>
       </c>
@@ -7584,7 +7587,7 @@
         <v>5.6252270027391083E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A153" s="2">
         <v>45382</v>
       </c>
@@ -7607,7 +7610,7 @@
         <v>3.4870148526100708E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A154" s="2">
         <v>45412</v>
       </c>
@@ -7630,7 +7633,7 @@
         <v>-6.8473784379209368E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A155" s="2">
         <v>45443</v>
       </c>
@@ -7653,7 +7656,7 @@
         <v>5.0382893793377008E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A156" s="2">
         <v>45473</v>
       </c>
@@ -7676,7 +7679,7 @@
         <v>-1.1242553241971881E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A157" s="2">
         <v>45504</v>
       </c>
@@ -7699,7 +7702,7 @@
         <v>0.10335682333108689</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A158" s="2">
         <v>45535</v>
       </c>
@@ -7722,7 +7725,7 @@
         <v>-1.6885611277070889E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A159" s="2">
         <v>45565</v>
       </c>
@@ -7745,7 +7748,7 @@
         <v>7.1063159059066017E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A160" s="2">
         <v>45596</v>
       </c>
@@ -7768,7 +7771,7 @@
         <v>-1.416954858160357E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A161" s="2">
         <v>45626</v>
       </c>
@@ -7791,7 +7794,7 @@
         <v>0.11071777389082629</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A162" s="2">
         <v>45657</v>
       </c>
@@ -7814,7 +7817,7 @@
         <v>-8.3739216274659189E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A163" s="2">
         <v>45688</v>
       </c>
@@ -7837,7 +7840,7 @@
         <v>2.4982199555638959E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A164" s="2">
         <v>45716</v>
       </c>
@@ -7860,7 +7863,7 @@
         <v>-5.223415991324043E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A165" s="2">
         <v>45747</v>
       </c>
@@ -7883,7 +7886,7 @@
         <v>-6.8542188440542939E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A166" s="2">
         <v>45777</v>
       </c>
@@ -7906,7 +7909,7 @@
         <v>-2.3209273627667559E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A167" s="2">
         <v>45808</v>
       </c>
@@ -7929,7 +7932,7 @@
         <v>5.239676859672171E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A168" s="2">
         <v>45838</v>
       </c>
@@ -7952,7 +7955,7 @@
         <v>5.5182627073970147E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A169" s="2">
         <v>45869</v>
       </c>
@@ -7975,7 +7978,7 @@
         <v>1.668326519648455E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A170" s="2">
         <v>45900</v>
       </c>
@@ -7998,7 +8001,7 @@
         <v>7.1926355398556296E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A171" s="2">
         <v>45930</v>
       </c>
@@ -8032,9 +8035,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
@@ -8051,7 +8054,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>40786</v>
       </c>
@@ -8065,7 +8068,7 @@
         <v>-0.21086979040778969</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>40816</v>
       </c>
@@ -8079,7 +8082,7 @@
         <v>-0.2069659578192001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>40847</v>
       </c>
@@ -8093,7 +8096,7 @@
         <v>0.32603178106378289</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>40877</v>
       </c>
@@ -8107,7 +8110,7 @@
         <v>-3.3537219656305961E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>40908</v>
       </c>
@@ -8121,7 +8124,7 @@
         <v>2.2947431868084459E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>40939</v>
       </c>
@@ -8135,7 +8138,7 @@
         <v>0.13901515151515159</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>40968</v>
       </c>
@@ -8149,7 +8152,7 @@
         <v>0.1323947825444334</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>40999</v>
       </c>
@@ -8163,7 +8166,7 @@
         <v>9.2932193434706045E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>41029</v>
       </c>
@@ -8177,7 +8180,7 @@
         <v>-2.3825162715710339E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>41060</v>
       </c>
@@ -8191,7 +8194,7 @@
         <v>-0.17350746268656711</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>41090</v>
       </c>
@@ -8205,7 +8208,7 @@
         <v>0.11471709284683421</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>41121</v>
       </c>
@@ -8219,7 +8222,7 @@
         <v>3.5155860970022879E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>41152</v>
       </c>
@@ -8233,7 +8236,7 @@
         <v>6.5262010134051751E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>41182</v>
       </c>
@@ -8247,7 +8250,7 @@
         <v>7.5172351506758606E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>41213</v>
       </c>
@@ -8261,7 +8264,7 @@
         <v>-5.9640477123817037E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>41243</v>
       </c>
@@ -8275,7 +8278,7 @@
         <v>1.012386850881364E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>41274</v>
       </c>
@@ -8289,7 +8292,7 @@
         <v>2.8151161419643911E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>41305</v>
       </c>
@@ -8303,7 +8306,7 @@
         <v>0.15387482439290129</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>41333</v>
       </c>
@@ -8317,7 +8320,7 @@
         <v>3.5630870148586118E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>41364</v>
       </c>
@@ -8331,7 +8334,7 @@
         <v>0.11036468330134359</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>41394</v>
       </c>
@@ -8345,7 +8348,7 @@
         <v>5.4494382022471921E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>41425</v>
       </c>
@@ -8359,7 +8362,7 @@
         <v>6.8029998770542166E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>41455</v>
       </c>
@@ -8373,7 +8376,7 @@
         <v>-5.2242814934192923E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>41486</v>
       </c>
@@ -8387,7 +8390,7 @@
         <v>0.16409239053422131</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>41517</v>
       </c>
@@ -8401,7 +8404,7 @@
         <v>-9.2148508825319442E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>41547</v>
       </c>
@@ -8415,7 +8418,7 @@
         <v>9.6004290694556182E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>41578</v>
       </c>
@@ -8429,7 +8432,7 @@
         <v>0.13759656052291239</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>41608</v>
       </c>
@@ -8443,7 +8446,7 @@
         <v>8.8752669339847268E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>41639</v>
       </c>
@@ -8457,7 +8460,7 @@
         <v>7.5365468194389607E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>41670</v>
       </c>
@@ -8471,7 +8474,7 @@
         <v>-0.1071526985001772</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>41698</v>
       </c>
@@ -8485,7 +8488,7 @@
         <v>0.13651661449377619</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>41729</v>
       </c>
@@ -8502,7 +8505,7 @@
         <v>2.1440024828014211E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>41759</v>
       </c>
@@ -8519,7 +8522,7 @@
         <v>1.658437776933774E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>41790</v>
       </c>
@@ -8536,7 +8539,7 @@
         <v>6.621419676214213E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>41820</v>
       </c>
@@ -8553,7 +8556,7 @@
         <v>6.2253991613814952E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>41851</v>
       </c>
@@ -8570,7 +8573,7 @@
         <v>-4.4399485414582163E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>41882</v>
       </c>
@@ -8587,7 +8590,7 @@
         <v>0.1195273216812989</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>41912</v>
       </c>
@@ -8604,7 +8607,7 @@
         <v>-4.4348746621170172E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>41943</v>
       </c>
@@ -8621,7 +8624,7 @@
         <v>6.0323503473790563E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>41973</v>
       </c>
@@ -8638,7 +8641,7 @@
         <v>8.3415321885364824E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>42004</v>
       </c>
@@ -8655,7 +8658,7 @@
         <v>-1.5363010813088E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
         <v>42035</v>
       </c>
@@ -8672,7 +8675,7 @@
         <v>-9.4719227185426025E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>42063</v>
       </c>
@@ -8689,7 +8692,7 @@
         <v>0.17485190942318199</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>42094</v>
       </c>
@@ -8706,7 +8709,7 @@
         <v>-5.284283926336486E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>42124</v>
       </c>
@@ -8723,7 +8726,7 @@
         <v>2.5927568924671181E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>42155</v>
       </c>
@@ -8740,7 +8743,7 @@
         <v>3.4325090159711413E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
         <v>42185</v>
       </c>
@@ -8757,7 +8760,7 @@
         <v>-6.2084730536258959E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
         <v>42216</v>
       </c>
@@ -8774,7 +8777,7 @@
         <v>6.1746659459254387E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>42247</v>
       </c>
@@ -8791,7 +8794,7 @@
         <v>-0.18865110130584681</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>42277</v>
       </c>
@@ -8808,7 +8811,7 @@
         <v>-8.6363486244591892E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <v>42308</v>
       </c>
@@ -8825,7 +8828,7 @@
         <v>0.26789329091960679</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
         <v>42338</v>
       </c>
@@ -8842,7 +8845,7 @@
         <v>8.1444523639817579E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
         <v>42369</v>
       </c>
@@ -8859,7 +8862,7 @@
         <v>-6.0556927659734971E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="2">
         <v>42400</v>
       </c>
@@ -8876,7 +8879,7 @@
         <v>-0.15378594794196149</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
         <v>42429</v>
       </c>
@@ -8893,7 +8896,7 @@
         <v>-1.6790779300858372E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <v>42460</v>
       </c>
@@ -8910,7 +8913,7 @@
         <v>0.21496454242848159</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="2">
         <v>42490</v>
       </c>
@@ -8927,7 +8930,7 @@
         <v>8.0603533849514797E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="2">
         <v>42521</v>
       </c>
@@ -8944,7 +8947,7 @@
         <v>4.653773436269093E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="2">
         <v>42551</v>
       </c>
@@ -8961,7 +8964,7 @@
         <v>-2.0418148629067772E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="2">
         <v>42582</v>
       </c>
@@ -8978,7 +8981,7 @@
         <v>0.1113227293727195</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="2">
         <v>42613</v>
       </c>
@@ -8995,7 +8998,7 @@
         <v>1.0859605660569201E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="2">
         <v>42643</v>
       </c>
@@ -9012,7 +9015,7 @@
         <v>-5.3561137665684164E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="2">
         <v>42674</v>
       </c>
@@ -9029,7 +9032,7 @@
         <v>-5.6218261136294023E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="2">
         <v>42704</v>
       </c>
@@ -9046,7 +9049,7 @@
         <v>0.11050322301067129</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="2">
         <v>42735</v>
       </c>
@@ -9063,7 +9066,7 @@
         <v>5.9606848446417171E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="2">
         <v>42766</v>
       </c>
@@ -9080,7 +9083,7 @@
         <v>5.1351102518068403E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="2">
         <v>42794</v>
       </c>
@@ -9097,7 +9100,7 @@
         <v>0.1190971386036737</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="2">
         <v>42825</v>
       </c>
@@ -9114,7 +9117,7 @@
         <v>-2.1780099249434359E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="2">
         <v>42855</v>
       </c>
@@ -9131,7 +9134,7 @@
         <v>2.7702804263578521E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="2">
         <v>42886</v>
       </c>
@@ -9151,7 +9154,7 @@
         <v>3.6990639466856663E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="2">
         <v>42916</v>
       </c>
@@ -9171,7 +9174,7 @@
         <v>1.5152723013619701E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="2">
         <v>42947</v>
       </c>
@@ -9191,7 +9194,7 @@
         <v>5.8727589039771821E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="2">
         <v>42978</v>
       </c>
@@ -9211,7 +9214,7 @@
         <v>2.0882544247029511E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" s="2">
         <v>43008</v>
       </c>
@@ -9231,7 +9234,7 @@
         <v>5.6897376332331273E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="2">
         <v>43039</v>
       </c>
@@ -9251,7 +9254,7 @@
         <v>6.8342087542087482E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="2">
         <v>43069</v>
       </c>
@@ -9271,7 +9274,7 @@
         <v>8.8724276515170564E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="2">
         <v>43100</v>
       </c>
@@ -9291,7 +9294,7 @@
         <v>3.454744194232684E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="2">
         <v>43131</v>
       </c>
@@ -9311,7 +9314,7 @@
         <v>0.1821637230541937</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="2">
         <v>43159</v>
       </c>
@@ -9331,7 +9334,7 @@
         <v>-0.13532080559279541</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="2">
         <v>43190</v>
       </c>
@@ -9351,7 +9354,7 @@
         <v>-8.6877304858927307E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="2">
         <v>43220</v>
       </c>
@@ -9371,7 +9374,7 @@
         <v>-1.3765912339438471E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="2">
         <v>43251</v>
       </c>
@@ -9391,7 +9394,7 @@
         <v>6.4649686117608685E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="2">
         <v>43281</v>
       </c>
@@ -9411,7 +9414,7 @@
         <v>1.2853076121429829E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="2">
         <v>43312</v>
       </c>
@@ -9431,7 +9434,7 @@
         <v>0.107292390471609</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="2">
         <v>43343</v>
       </c>
@@ -9451,7 +9454,7 @@
         <v>9.0926644032888637E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="2">
         <v>43373</v>
       </c>
@@ -9471,7 +9474,7 @@
         <v>1.196902654867249E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="2">
         <v>43404</v>
       </c>
@@ -9491,7 +9494,7 @@
         <v>-0.2077895105047988</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="2">
         <v>43434</v>
       </c>
@@ -9511,7 +9514,7 @@
         <v>4.2760752280159631E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="2">
         <v>43465</v>
       </c>
@@ -9531,7 +9534,7 @@
         <v>-0.26220469662485218</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" s="2">
         <v>43496</v>
       </c>
@@ -9551,7 +9554,7 @@
         <v>0.23893106952830759</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" s="2">
         <v>43524</v>
       </c>
@@ -9571,7 +9574,7 @@
         <v>9.2826535930050857E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" s="2">
         <v>43555</v>
       </c>
@@ -9591,7 +9594,7 @@
         <v>4.850026272447483E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" s="2">
         <v>43585</v>
       </c>
@@ -9611,7 +9614,7 @@
         <v>0.118097171277326</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" s="2">
         <v>43616</v>
       </c>
@@ -9631,7 +9634,7 @@
         <v>-0.18892655367231651</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" s="2">
         <v>43646</v>
       </c>
@@ -9651,7 +9654,7 @@
         <v>0.21365747190489451</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" s="2">
         <v>43677</v>
       </c>
@@ -9671,7 +9674,7 @@
         <v>3.8041086822601322E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" s="2">
         <v>43708</v>
       </c>
@@ -9691,7 +9694,7 @@
         <v>-6.617985852829622E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" s="2">
         <v>43738</v>
       </c>
@@ -9711,7 +9714,7 @@
         <v>5.2965022874668977E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" s="2">
         <v>43769</v>
       </c>
@@ -9731,7 +9734,7 @@
         <v>5.6992371277014398E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" s="2">
         <v>43799</v>
       </c>
@@ -9751,7 +9754,7 @@
         <v>0.10732449513757381</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" s="2">
         <v>43830</v>
       </c>
@@ -9771,7 +9774,7 @@
         <v>8.3806558857724811E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" s="2">
         <v>43861</v>
       </c>
@@ -9791,7 +9794,7 @@
         <v>-9.140476084932847E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" s="2">
         <v>43890</v>
       </c>
@@ -9811,7 +9814,7 @@
         <v>-0.23036040227622501</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" s="2">
         <v>43921</v>
       </c>
@@ -9831,7 +9834,7 @@
         <v>-0.48125586117634289</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" s="2">
         <v>43951</v>
       </c>
@@ -9851,7 +9854,7 @@
         <v>0.37169814139723911</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" s="2">
         <v>43982</v>
       </c>
@@ -9871,7 +9874,7 @@
         <v>0.13377554854836851</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" s="2">
         <v>44012</v>
       </c>
@@ -9891,7 +9894,7 @@
         <v>3.2346230516127512E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" s="2">
         <v>44043</v>
       </c>
@@ -9911,7 +9914,7 @@
         <v>0.17695969179086071</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" s="2">
         <v>44074</v>
       </c>
@@ -9931,7 +9934,7 @@
         <v>0.22045771710726569</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" s="2">
         <v>44104</v>
       </c>
@@ -9951,7 +9954,7 @@
         <v>-0.122565723836795</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" s="2">
         <v>44135</v>
       </c>
@@ -9971,7 +9974,7 @@
         <v>-8.4779863997814564E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" s="2">
         <v>44165</v>
       </c>
@@ -9991,7 +9994,7 @@
         <v>0.35196218028098558</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" s="2">
         <v>44196</v>
       </c>
@@ -10011,7 +10014,7 @@
         <v>0.11142140233732831</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" s="2">
         <v>44227</v>
       </c>
@@ -10031,7 +10034,7 @@
         <v>-3.7080485565643029E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" s="2">
         <v>44255</v>
       </c>
@@ -10051,7 +10054,7 @@
         <v>7.7421027541043852E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" s="2">
         <v>44286</v>
       </c>
@@ -10071,7 +10074,7 @@
         <v>0.13330331822227739</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" s="2">
         <v>44316</v>
       </c>
@@ -10091,7 +10094,7 @@
         <v>0.16172287038516869</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" s="2">
         <v>44347</v>
       </c>
@@ -10111,7 +10114,7 @@
         <v>1.362556330983478E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" s="2">
         <v>44377</v>
       </c>
@@ -10131,7 +10134,7 @@
         <v>6.589743987466945E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" s="2">
         <v>44408</v>
       </c>
@@ -10151,7 +10154,7 @@
         <v>6.931784488388204E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" s="2">
         <v>44439</v>
       </c>
@@ -10171,7 +10174,7 @@
         <v>8.9732074508803272E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" s="2">
         <v>44469</v>
       </c>
@@ -10191,7 +10194,7 @@
         <v>-0.1394085847776847</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" s="2">
         <v>44500</v>
       </c>
@@ -10211,7 +10214,7 @@
         <v>0.2189775328590553</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" s="2">
         <v>44530</v>
       </c>
@@ -10231,7 +10234,7 @@
         <v>-2.7125882606786941E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" s="2">
         <v>44561</v>
       </c>
@@ -10251,7 +10254,7 @@
         <v>0.131800007953673</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" s="2">
         <v>44592</v>
       </c>
@@ -10271,7 +10274,7 @@
         <v>-0.1588880404889487</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" s="2">
         <v>44620</v>
       </c>
@@ -10291,7 +10294,7 @@
         <v>-9.8503337966050042E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" s="2">
         <v>44651</v>
       </c>
@@ -10311,7 +10314,7 @@
         <v>0.1007239635130945</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" s="2">
         <v>44681</v>
       </c>
@@ -10331,7 +10334,7 @@
         <v>-0.25412570111011801</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" s="2">
         <v>44712</v>
       </c>
@@ -10351,7 +10354,7 @@
         <v>-2.1280983662074541E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" s="2">
         <v>44742</v>
       </c>
@@ -10371,7 +10374,7 @@
         <v>-0.24929964533107971</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" s="2">
         <v>44773</v>
       </c>
@@ -10391,7 +10394,7 @@
         <v>0.2862034935942892</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" s="2">
         <v>44804</v>
       </c>
@@ -10411,7 +10414,7 @@
         <v>-0.133333945919373</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" s="2">
         <v>44834</v>
       </c>
@@ -10431,7 +10434,7 @@
         <v>-0.26910099106477842</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" s="2">
         <v>44865</v>
       </c>
@@ -10451,7 +10454,7 @@
         <v>0.23055191896919999</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" s="2">
         <v>44895</v>
       </c>
@@ -10471,7 +10474,7 @@
         <v>0.14387851031913729</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138" s="2">
         <v>44926</v>
       </c>
@@ -10491,7 +10494,7 @@
         <v>-0.17726244518758591</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" s="2">
         <v>44957</v>
       </c>
@@ -10511,7 +10514,7 @@
         <v>0.18126505062018741</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" s="2">
         <v>44985</v>
       </c>
@@ -10531,7 +10534,7 @@
         <v>-8.731681971454619E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" s="2">
         <v>45016</v>
       </c>
@@ -10551,7 +10554,7 @@
         <v>9.4221083633955427E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" s="2">
         <v>45046</v>
       </c>
@@ -10571,7 +10574,7 @@
         <v>3.6036896940739187E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143" s="2">
         <v>45077</v>
       </c>
@@ -10591,7 +10594,7 @@
         <v>-1.501405325633254E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144" s="2">
         <v>45107</v>
       </c>
@@ -10611,7 +10614,7 @@
         <v>0.19124745005965901</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145" s="2">
         <v>45138</v>
       </c>
@@ -10631,7 +10634,7 @@
         <v>8.9489000467423585E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146" s="2">
         <v>45169</v>
       </c>
@@ -10651,7 +10654,7 @@
         <v>-6.3735685815513143E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147" s="2">
         <v>45199</v>
       </c>
@@ -10671,7 +10674,7 @@
         <v>-0.14711068408104641</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148" s="2">
         <v>45230</v>
       </c>
@@ -10691,7 +10694,7 @@
         <v>-7.8942286266062589E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" s="2">
         <v>45260</v>
       </c>
@@ -10711,7 +10714,7 @@
         <v>0.28111912173459558</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" s="2">
         <v>45291</v>
       </c>
@@ -10731,7 +10734,7 @@
         <v>0.12925528343377041</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151" s="2">
         <v>45322</v>
       </c>
@@ -10751,7 +10754,7 @@
         <v>3.4525302637568922E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152" s="2">
         <v>45351</v>
       </c>
@@ -10771,7 +10774,7 @@
         <v>0.14674207835966999</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153" s="2">
         <v>45382</v>
       </c>
@@ -10791,7 +10794,7 @@
         <v>8.8352256263832141E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154" s="2">
         <v>45412</v>
       </c>
@@ -10811,7 +10814,7 @@
         <v>-0.12969489564340181</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155" s="2">
         <v>45443</v>
       </c>
@@ -10831,7 +10834,7 @@
         <v>0.1428347016560427</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156" s="2">
         <v>45473</v>
       </c>
@@ -10851,7 +10854,7 @@
         <v>9.8223935989350863E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157" s="2">
         <v>45504</v>
       </c>
@@ -10871,7 +10874,7 @@
         <v>1.8089091079166231E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158" s="2">
         <v>45535</v>
       </c>
@@ -10891,7 +10894,7 @@
         <v>5.0748559367765463E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159" s="2">
         <v>45565</v>
       </c>
@@ -10911,7 +10914,7 @@
         <v>5.124346186482942E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160" s="2">
         <v>45596</v>
       </c>
@@ -10931,7 +10934,7 @@
         <v>-4.0955979263685098E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161" s="2">
         <v>45626</v>
       </c>
@@ -10951,7 +10954,7 @@
         <v>0.17408650698251679</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162" s="2">
         <v>45657</v>
       </c>
@@ -10971,7 +10974,7 @@
         <v>-8.4107598795579275E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163" s="2">
         <v>45688</v>
       </c>
@@ -10991,7 +10994,7 @@
         <v>6.6899696462975777E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A164" s="2">
         <v>45716</v>
       </c>
@@ -11011,7 +11014,7 @@
         <v>-4.9909548658988327E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165" s="2">
         <v>45747</v>
       </c>
@@ -11031,7 +11034,7 @@
         <v>-0.1756013919007515</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A166" s="2">
         <v>45777</v>
       </c>
@@ -11051,7 +11054,7 @@
         <v>-8.7008829346872929E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167" s="2">
         <v>45808</v>
       </c>
@@ -11071,7 +11074,7 @@
         <v>0.18245112490880119</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168" s="2">
         <v>45838</v>
       </c>
@@ -11091,7 +11094,7 @@
         <v>0.14918163662601081</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A169" s="2">
         <v>45869</v>
       </c>
@@ -11111,7 +11114,7 @@
         <v>5.905537694851537E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A170" s="2">
         <v>45900</v>
       </c>
@@ -11131,7 +11134,7 @@
         <v>4.9462345565967507E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A171" s="2">
         <v>45930</v>
       </c>
